--- a/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
+++ b/InputData/indst/BSoAIGtAP/BAU Shr of Ag Indst Going to Anml Prdcts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\indst\BSoAIGtAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS India 2.1 - Input Data Revisions_17Mar2020\BSoAIGtAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E6A94-D56E-4966-9DEE-E702A6DEC1BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8732F963-FC48-49A9-BA95-E9B5600B291F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1298,17 +1298,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1339,12 +1345,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1524,1101 +1524,6 @@
         <row r="1">
           <cell r="C1" t="str">
             <v>AMT</v>
-          </cell>
-          <cell r="F1">
-            <v>2005</v>
-          </cell>
-          <cell r="G1">
-            <v>4913.75752150669</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>AMT</v>
-          </cell>
-          <cell r="F2">
-            <v>2010</v>
-          </cell>
-          <cell r="G2">
-            <v>5945.6486375652303</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>AMT</v>
-          </cell>
-          <cell r="F3">
-            <v>2015</v>
-          </cell>
-          <cell r="G3">
-            <v>7218.6977358819004</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>AMT</v>
-          </cell>
-          <cell r="F4">
-            <v>2020</v>
-          </cell>
-          <cell r="G4">
-            <v>8739.40066318764</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>AMT</v>
-          </cell>
-          <cell r="F5">
-            <v>2025</v>
-          </cell>
-          <cell r="G5">
-            <v>10514.0243252744</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>AMT</v>
-          </cell>
-          <cell r="F6">
-            <v>2030</v>
-          </cell>
-          <cell r="G6">
-            <v>12333.270798981401</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>AMT</v>
-          </cell>
-          <cell r="F7">
-            <v>2035</v>
-          </cell>
-          <cell r="G7">
-            <v>14136.309513882799</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>AMT</v>
-          </cell>
-          <cell r="F8">
-            <v>2040</v>
-          </cell>
-          <cell r="G8">
-            <v>16082.2083899565</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>AMT</v>
-          </cell>
-          <cell r="F9">
-            <v>2045</v>
-          </cell>
-          <cell r="G9">
-            <v>17987.454406345601</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>AMT</v>
-          </cell>
-          <cell r="F10">
-            <v>2050</v>
-          </cell>
-          <cell r="G10">
-            <v>19902.723514019301</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>AMT-Beef</v>
-          </cell>
-          <cell r="F11">
-            <v>2005</v>
-          </cell>
-          <cell r="G11">
-            <v>2340.03502245549</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>AMT-Beef</v>
-          </cell>
-          <cell r="F12">
-            <v>2010</v>
-          </cell>
-          <cell r="G12">
-            <v>2664.4174130753199</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>AMT-Beef</v>
-          </cell>
-          <cell r="F13">
-            <v>2015</v>
-          </cell>
-          <cell r="G13">
-            <v>3045.8379293211401</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>AMT-Beef</v>
-          </cell>
-          <cell r="F14">
-            <v>2020</v>
-          </cell>
-          <cell r="G14">
-            <v>3477.5235487342202</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>AMT-Beef</v>
-          </cell>
-          <cell r="F15">
-            <v>2025</v>
-          </cell>
-          <cell r="G15">
-            <v>3948.0469793699699</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>AMT-Beef</v>
-          </cell>
-          <cell r="F16">
-            <v>2030</v>
-          </cell>
-          <cell r="G16">
-            <v>4396.1634141281802</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>AMT-Beef</v>
-          </cell>
-          <cell r="F17">
-            <v>2035</v>
-          </cell>
-          <cell r="G17">
-            <v>4799.7238606208803</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>AMT-Beef</v>
-          </cell>
-          <cell r="F18">
-            <v>2040</v>
-          </cell>
-          <cell r="G18">
-            <v>5211.3581804422602</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>AMT-Beef</v>
-          </cell>
-          <cell r="F19">
-            <v>2045</v>
-          </cell>
-          <cell r="G19">
-            <v>5582.6300002979997</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>AMT-Beef</v>
-          </cell>
-          <cell r="F20">
-            <v>2050</v>
-          </cell>
-          <cell r="G20">
-            <v>5938.2554336702096</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>AMT-Pork</v>
-          </cell>
-          <cell r="F21">
-            <v>2005</v>
-          </cell>
-          <cell r="G21">
-            <v>424.88651426344097</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>AMT-Pork</v>
-          </cell>
-          <cell r="F22">
-            <v>2010</v>
-          </cell>
-          <cell r="G22">
-            <v>534.34213265089397</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>AMT-Pork</v>
-          </cell>
-          <cell r="F23">
-            <v>2015</v>
-          </cell>
-          <cell r="G23">
-            <v>670.27046304214196</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>AMT-Pork</v>
-          </cell>
-          <cell r="F24">
-            <v>2020</v>
-          </cell>
-          <cell r="G24">
-            <v>834.04130225279698</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>AMT-Pork</v>
-          </cell>
-          <cell r="F25">
-            <v>2025</v>
-          </cell>
-          <cell r="G25">
-            <v>1033.10003264596</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>AMT-Pork</v>
-          </cell>
-          <cell r="F26">
-            <v>2030</v>
-          </cell>
-          <cell r="G26">
-            <v>1255.48567008754</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>AMT-Pork</v>
-          </cell>
-          <cell r="F27">
-            <v>2035</v>
-          </cell>
-          <cell r="G27">
-            <v>1499.7822786537099</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>AMT-Pork</v>
-          </cell>
-          <cell r="F28">
-            <v>2040</v>
-          </cell>
-          <cell r="G28">
-            <v>1778.3980997855399</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>AMT-Pork</v>
-          </cell>
-          <cell r="F29">
-            <v>2045</v>
-          </cell>
-          <cell r="G29">
-            <v>2081.9049644727402</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>AMT-Pork</v>
-          </cell>
-          <cell r="F30">
-            <v>2050</v>
-          </cell>
-          <cell r="G30">
-            <v>2413.3933976497601</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>AMT-Lamb</v>
-          </cell>
-          <cell r="F31">
-            <v>2005</v>
-          </cell>
-          <cell r="G31">
-            <v>748.02686425400498</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>AMT-Lamb</v>
-          </cell>
-          <cell r="F32">
-            <v>2010</v>
-          </cell>
-          <cell r="G32">
-            <v>944.22602699596905</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>AMT-Lamb</v>
-          </cell>
-          <cell r="F33">
-            <v>2015</v>
-          </cell>
-          <cell r="G33">
-            <v>1171.3982496828501</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>AMT-Lamb</v>
-          </cell>
-          <cell r="F34">
-            <v>2020</v>
-          </cell>
-          <cell r="G34">
-            <v>1439.4735038779199</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>AMT-Lamb</v>
-          </cell>
-          <cell r="F35">
-            <v>2025</v>
-          </cell>
-          <cell r="G35">
-            <v>1742.7644527876701</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>AMT-Lamb</v>
-          </cell>
-          <cell r="F36">
-            <v>2030</v>
-          </cell>
-          <cell r="G36">
-            <v>2041.67562970945</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>AMT-Lamb</v>
-          </cell>
-          <cell r="F37">
-            <v>2035</v>
-          </cell>
-          <cell r="G37">
-            <v>2326.7603023606998</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>AMT-Lamb</v>
-          </cell>
-          <cell r="F38">
-            <v>2040</v>
-          </cell>
-          <cell r="G38">
-            <v>2621.30701007277</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>AMT-Lamb</v>
-          </cell>
-          <cell r="F39">
-            <v>2045</v>
-          </cell>
-          <cell r="G39">
-            <v>2895.9637098201301</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>AMT-Lamb</v>
-          </cell>
-          <cell r="F40">
-            <v>2050</v>
-          </cell>
-          <cell r="G40">
-            <v>3153.81216237952</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>AMT-Poultry</v>
-          </cell>
-          <cell r="F41">
-            <v>2005</v>
-          </cell>
-          <cell r="G41">
-            <v>1400.8091205337601</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>AMT-Poultry</v>
-          </cell>
-          <cell r="F42">
-            <v>2010</v>
-          </cell>
-          <cell r="G42">
-            <v>1802.66306484304</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43" t="str">
-            <v>AMT-Poultry</v>
-          </cell>
-          <cell r="F43">
-            <v>2015</v>
-          </cell>
-          <cell r="G43">
-            <v>2331.1910938357701</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44" t="str">
-            <v>AMT-Poultry</v>
-          </cell>
-          <cell r="F44">
-            <v>2020</v>
-          </cell>
-          <cell r="G44">
-            <v>2988.3623083226998</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45" t="str">
-            <v>AMT-Poultry</v>
-          </cell>
-          <cell r="F45">
-            <v>2025</v>
-          </cell>
-          <cell r="G45">
-            <v>3790.1128604708101</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46" t="str">
-            <v>AMT-Poultry</v>
-          </cell>
-          <cell r="F46">
-            <v>2030</v>
-          </cell>
-          <cell r="G46">
-            <v>4639.94608505622</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47" t="str">
-            <v>AMT-Poultry</v>
-          </cell>
-          <cell r="F47">
-            <v>2035</v>
-          </cell>
-          <cell r="G47">
-            <v>5510.0430722475503</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>AMT-Poultry</v>
-          </cell>
-          <cell r="F48">
-            <v>2040</v>
-          </cell>
-          <cell r="G48">
-            <v>6471.1450996559697</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v>AMT-Poultry</v>
-          </cell>
-          <cell r="F49">
-            <v>2045</v>
-          </cell>
-          <cell r="G49">
-            <v>7426.9557317547496</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50" t="str">
-            <v>AMT-Poultry</v>
-          </cell>
-          <cell r="F50">
-            <v>2050</v>
-          </cell>
-          <cell r="G50">
-            <v>8397.2625203197804</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v>AOT</v>
-          </cell>
-          <cell r="F51">
-            <v>2005</v>
-          </cell>
-          <cell r="G51">
-            <v>97843.755123613999</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52" t="str">
-            <v>AOT</v>
-          </cell>
-          <cell r="F52">
-            <v>2010</v>
-          </cell>
-          <cell r="G52">
-            <v>115554.082460169</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53" t="str">
-            <v>AOT</v>
-          </cell>
-          <cell r="F53">
-            <v>2015</v>
-          </cell>
-          <cell r="G53">
-            <v>136725.36939296901</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54" t="str">
-            <v>AOT</v>
-          </cell>
-          <cell r="F54">
-            <v>2020</v>
-          </cell>
-          <cell r="G54">
-            <v>161153.52588488901</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v>AOT</v>
-          </cell>
-          <cell r="F55">
-            <v>2025</v>
-          </cell>
-          <cell r="G55">
-            <v>187901.80751993999</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56" t="str">
-            <v>AOT</v>
-          </cell>
-          <cell r="F56">
-            <v>2030</v>
-          </cell>
-          <cell r="G56">
-            <v>213111.09496021699</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57" t="str">
-            <v>AOT</v>
-          </cell>
-          <cell r="F57">
-            <v>2035</v>
-          </cell>
-          <cell r="G57">
-            <v>235542.463900856</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58" t="str">
-            <v>AOT</v>
-          </cell>
-          <cell r="F58">
-            <v>2040</v>
-          </cell>
-          <cell r="G58">
-            <v>257595.59924138701</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59" t="str">
-            <v>AOT</v>
-          </cell>
-          <cell r="F59">
-            <v>2045</v>
-          </cell>
-          <cell r="G59">
-            <v>277232.127231416</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60" t="str">
-            <v>AOT</v>
-          </cell>
-          <cell r="F60">
-            <v>2050</v>
-          </cell>
-          <cell r="G60">
-            <v>295671.725027557</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61" t="str">
-            <v>AOT-Eggs</v>
-          </cell>
-          <cell r="F61">
-            <v>2005</v>
-          </cell>
-          <cell r="G61">
-            <v>2630.85321466084</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62" t="str">
-            <v>AOT-Eggs</v>
-          </cell>
-          <cell r="F62">
-            <v>2010</v>
-          </cell>
-          <cell r="G62">
-            <v>3085.3477199754798</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63" t="str">
-            <v>AOT-Eggs</v>
-          </cell>
-          <cell r="F63">
-            <v>2015</v>
-          </cell>
-          <cell r="G63">
-            <v>3602.5197372160301</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64" t="str">
-            <v>AOT-Eggs</v>
-          </cell>
-          <cell r="F64">
-            <v>2020</v>
-          </cell>
-          <cell r="G64">
-            <v>4183.0411770144201</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65" t="str">
-            <v>AOT-Eggs</v>
-          </cell>
-          <cell r="F65">
-            <v>2025</v>
-          </cell>
-          <cell r="G65">
-            <v>4861.58047113864</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66" t="str">
-            <v>AOT-Eggs</v>
-          </cell>
-          <cell r="F66">
-            <v>2030</v>
-          </cell>
-          <cell r="G66">
-            <v>5525.9471219080497</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67" t="str">
-            <v>AOT-Eggs</v>
-          </cell>
-          <cell r="F67">
-            <v>2035</v>
-          </cell>
-          <cell r="G67">
-            <v>6191.5002213825301</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68" t="str">
-            <v>AOT-Eggs</v>
-          </cell>
-          <cell r="F68">
-            <v>2040</v>
-          </cell>
-          <cell r="G68">
-            <v>6890.5185052177703</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69" t="str">
-            <v>AOT-Eggs</v>
-          </cell>
-          <cell r="F69">
-            <v>2045</v>
-          </cell>
-          <cell r="G69">
-            <v>7591.3934551619795</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70" t="str">
-            <v>AOT-Eggs</v>
-          </cell>
-          <cell r="F70">
-            <v>2050</v>
-          </cell>
-          <cell r="G70">
-            <v>8305.1303784782503</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71" t="str">
-            <v>AOT-Dairy</v>
-          </cell>
-          <cell r="F71">
-            <v>2005</v>
-          </cell>
-          <cell r="G71">
-            <v>95212.901908953107</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72" t="str">
-            <v>AOT-Dairy</v>
-          </cell>
-          <cell r="F72">
-            <v>2010</v>
-          </cell>
-          <cell r="G72">
-            <v>112468.73474019401</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73" t="str">
-            <v>AOT-Dairy</v>
-          </cell>
-          <cell r="F73">
-            <v>2015</v>
-          </cell>
-          <cell r="G73">
-            <v>133122.849655753</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74" t="str">
-            <v>AOT-Dairy</v>
-          </cell>
-          <cell r="F74">
-            <v>2020</v>
-          </cell>
-          <cell r="G74">
-            <v>156970.48470787401</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75" t="str">
-            <v>AOT-Dairy</v>
-          </cell>
-          <cell r="F75">
-            <v>2025</v>
-          </cell>
-          <cell r="G75">
-            <v>183040.227048801</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76" t="str">
-            <v>AOT-Dairy</v>
-          </cell>
-          <cell r="F76">
-            <v>2030</v>
-          </cell>
-          <cell r="G76">
-            <v>207585.147838309</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77" t="str">
-            <v>AOT-Dairy</v>
-          </cell>
-          <cell r="F77">
-            <v>2035</v>
-          </cell>
-          <cell r="G77">
-            <v>229350.963679473</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78" t="str">
-            <v>AOT-Dairy</v>
-          </cell>
-          <cell r="F78">
-            <v>2040</v>
-          </cell>
-          <cell r="G78">
-            <v>250705.08073616901</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79" t="str">
-            <v>AOT-Dairy</v>
-          </cell>
-          <cell r="F79">
-            <v>2045</v>
-          </cell>
-          <cell r="G79">
-            <v>269640.733776254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80" t="str">
-            <v>AOT-Dairy</v>
-          </cell>
-          <cell r="F80">
-            <v>2050</v>
-          </cell>
-          <cell r="G80">
-            <v>287366.59464907902</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F81">
-            <v>2005</v>
-          </cell>
-          <cell r="G81">
-            <v>89349.974317293105</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F82">
-            <v>2010</v>
-          </cell>
-          <cell r="G82">
-            <v>92806.674086887797</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F83">
-            <v>2015</v>
-          </cell>
-          <cell r="G83">
-            <v>95902.046529225103</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F84">
-            <v>2020</v>
-          </cell>
-          <cell r="G84">
-            <v>99614.324053112199</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F85">
-            <v>2025</v>
-          </cell>
-          <cell r="G85">
-            <v>102794.67671577301</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F86">
-            <v>2030</v>
-          </cell>
-          <cell r="G86">
-            <v>103408.781645315</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F87">
-            <v>2035</v>
-          </cell>
-          <cell r="G87">
-            <v>101884.609431666</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F88">
-            <v>2040</v>
-          </cell>
-          <cell r="G88">
-            <v>98596.140077849705</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F89">
-            <v>2045</v>
-          </cell>
-          <cell r="G89">
-            <v>95776.538284017006</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F90">
-            <v>2050</v>
-          </cell>
-          <cell r="G90">
-            <v>93283.709552209693</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F91">
-            <v>2005</v>
-          </cell>
-          <cell r="G91">
-            <v>43125.5</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F92">
-            <v>2010</v>
-          </cell>
-          <cell r="G92">
-            <v>41896.3772754737</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F93">
-            <v>2015</v>
-          </cell>
-          <cell r="G93">
-            <v>41752.061042330301</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F94">
-            <v>2020</v>
-          </cell>
-          <cell r="G94">
-            <v>41829.774166563802</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F95">
-            <v>2025</v>
-          </cell>
-          <cell r="G95">
-            <v>41839.607490300397</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F96">
-            <v>2030</v>
-          </cell>
-          <cell r="G96">
-            <v>41580.787604699697</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F97">
-            <v>2035</v>
-          </cell>
-          <cell r="G97">
-            <v>41258.534325934801</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F98">
-            <v>2040</v>
-          </cell>
-          <cell r="G98">
-            <v>41012.313604333598</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F99">
-            <v>2045</v>
-          </cell>
-          <cell r="G99">
-            <v>41119.3849182743</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100" t="str">
-            <v>CER-Rice</v>
-          </cell>
-          <cell r="F100">
-            <v>2050</v>
-          </cell>
-          <cell r="G100">
-            <v>41440.672684560202</v>
           </cell>
         </row>
       </sheetData>
@@ -3284,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E6C561-2D02-4D79-87CC-56F0DDD756AD}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5676,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D6701D-7B63-4ED1-A4E3-F4B19F87487F}">
   <dimension ref="A1:AT219"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32:X67"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5799,10 +4704,10 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
         <v>127</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -5832,40 +4737,40 @@
       <c r="U5" s="55"/>
       <c r="V5" s="55"/>
       <c r="W5" s="55"/>
-      <c r="X5" s="57" t="s">
+      <c r="X5" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="Y5" s="54" t="s">
+      <c r="Y5" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="Z5" s="54" t="s">
+      <c r="Z5" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="AA5" s="54" t="s">
+      <c r="AA5" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="AB5" s="54" t="s">
+      <c r="AB5" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="AC5" s="54" t="s">
+      <c r="AC5" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AD5" s="54" t="s">
+      <c r="AD5" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AE5" s="54" t="s">
+      <c r="AE5" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AF5" s="54" t="s">
+      <c r="AF5" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="AG5" s="54" t="s">
+      <c r="AG5" s="57" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="55" t="s">
         <v>141</v>
       </c>
@@ -5878,7 +4783,7 @@
       </c>
       <c r="G6" s="55"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="57" t="s">
         <v>144</v>
       </c>
       <c r="J6" s="55" t="s">
@@ -5893,7 +4798,7 @@
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="54" t="s">
+      <c r="P6" s="57" t="s">
         <v>145</v>
       </c>
       <c r="Q6" s="55" t="s">
@@ -5906,23 +4811,23 @@
       <c r="T6" s="55"/>
       <c r="U6" s="55"/>
       <c r="V6" s="55"/>
-      <c r="W6" s="54" t="s">
+      <c r="W6" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="55"/>
       <c r="D7" s="12" t="s">
         <v>147</v>
@@ -5939,7 +4844,7 @@
       <c r="H7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="55"/>
       <c r="K7" s="12" t="s">
         <v>147</v>
@@ -5956,7 +4861,7 @@
       <c r="O7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="P7" s="54"/>
+      <c r="P7" s="57"/>
       <c r="Q7" s="55"/>
       <c r="R7" s="12" t="s">
         <v>147</v>
@@ -5973,17 +4878,17 @@
       <c r="V7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="W7" s="54"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -7040,35 +5945,27 @@
         <v>154</v>
       </c>
       <c r="B21">
-        <f t="array" ref="B21">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A21,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!B$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>3045.8379293211401</v>
       </c>
       <c r="C21">
-        <f t="array" ref="C21">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A21,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!C$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>3477.5235487342202</v>
       </c>
       <c r="D21">
-        <f t="array" ref="D21">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A21,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!D$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>3948.0469793699699</v>
       </c>
       <c r="E21">
-        <f t="array" ref="E21">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A21,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!E$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>4396.1634141281802</v>
       </c>
       <c r="F21">
-        <f t="array" ref="F21">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A21,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!F$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>4799.7238606208803</v>
       </c>
       <c r="G21">
-        <f t="array" ref="G21">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A21,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!G$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>5211.3581804422602</v>
       </c>
       <c r="H21">
-        <f t="array" ref="H21">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A21,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!H$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>5582.6300002979997</v>
       </c>
       <c r="I21">
-        <f t="array" ref="I21">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A21,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!I$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>5938.2554336702096</v>
       </c>
     </row>
@@ -7077,35 +5974,27 @@
         <v>155</v>
       </c>
       <c r="B22">
-        <f t="array" ref="B22">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A22,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!B$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>670.27046304214196</v>
       </c>
       <c r="C22">
-        <f t="array" ref="C22">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A22,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!C$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>834.04130225279698</v>
       </c>
       <c r="D22">
-        <f t="array" ref="D22">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A22,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!D$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>1033.10003264596</v>
       </c>
       <c r="E22">
-        <f t="array" ref="E22">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A22,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!E$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>1255.48567008754</v>
       </c>
       <c r="F22">
-        <f t="array" ref="F22">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A22,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!F$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>1499.7822786537099</v>
       </c>
       <c r="G22">
-        <f t="array" ref="G22">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A22,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!G$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>1778.3980997855399</v>
       </c>
       <c r="H22">
-        <f t="array" ref="H22">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A22,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!H$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>2081.9049644727402</v>
       </c>
       <c r="I22">
-        <f t="array" ref="I22">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A22,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!I$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>2413.3933976497601</v>
       </c>
     </row>
@@ -7114,35 +6003,27 @@
         <v>156</v>
       </c>
       <c r="B23">
-        <f t="array" ref="B23">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A23,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!B$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>1171.3982496828501</v>
       </c>
       <c r="C23">
-        <f t="array" ref="C23">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A23,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!C$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>1439.4735038779199</v>
       </c>
       <c r="D23">
-        <f t="array" ref="D23">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A23,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!D$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>1742.7644527876701</v>
       </c>
       <c r="E23">
-        <f t="array" ref="E23">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A23,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!E$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>2041.67562970945</v>
       </c>
       <c r="F23">
-        <f t="array" ref="F23">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A23,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!F$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>2326.7603023606998</v>
       </c>
       <c r="G23">
-        <f t="array" ref="G23">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A23,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!G$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>2621.30701007277</v>
       </c>
       <c r="H23">
-        <f t="array" ref="H23">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A23,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!H$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>2895.9637098201301</v>
       </c>
       <c r="I23">
-        <f t="array" ref="I23">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A23,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!I$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>3153.81216237952</v>
       </c>
     </row>
@@ -7151,35 +6032,27 @@
         <v>157</v>
       </c>
       <c r="B24">
-        <f t="array" ref="B24">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A24,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!B$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>2331.1910938357701</v>
       </c>
       <c r="C24">
-        <f t="array" ref="C24">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A24,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!C$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>2988.3623083226998</v>
       </c>
       <c r="D24">
-        <f t="array" ref="D24">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A24,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!D$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>3790.1128604708101</v>
       </c>
       <c r="E24">
-        <f t="array" ref="E24">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A24,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!E$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>4639.94608505622</v>
       </c>
       <c r="F24">
-        <f t="array" ref="F24">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A24,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!F$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>5510.0430722475503</v>
       </c>
       <c r="G24">
-        <f t="array" ref="G24">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A24,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!G$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>6471.1450996559697</v>
       </c>
       <c r="H24">
-        <f t="array" ref="H24">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A24,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!H$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>7426.9557317547496</v>
       </c>
       <c r="I24">
-        <f t="array" ref="I24">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A24,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!I$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>8397.2625203197804</v>
       </c>
     </row>
@@ -7188,35 +6061,27 @@
         <v>158</v>
       </c>
       <c r="B25">
-        <f t="array" ref="B25">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A25,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!B$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>133122.849655753</v>
       </c>
       <c r="C25">
-        <f t="array" ref="C25">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A25,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!C$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>156970.48470787401</v>
       </c>
       <c r="D25">
-        <f t="array" ref="D25">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A25,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!D$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>183040.227048801</v>
       </c>
       <c r="E25">
-        <f t="array" ref="E25">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A25,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!E$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>207585.147838309</v>
       </c>
       <c r="F25">
-        <f t="array" ref="F25">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A25,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!F$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>229350.963679473</v>
       </c>
       <c r="G25">
-        <f t="array" ref="G25">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A25,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!G$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>250705.08073616901</v>
       </c>
       <c r="H25">
-        <f t="array" ref="H25">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A25,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!H$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>269640.733776254</v>
       </c>
       <c r="I25">
-        <f t="array" ref="I25">SUMPRODUCT(--IF('[1]IFPRI Results'!$C$1:$C$620='Bovine Inventory'!$A25,--IF('[1]IFPRI Results'!$F$1:$F$620='Bovine Inventory'!I$20,'[1]IFPRI Results'!$G$1:$G$620)))</f>
         <v>287366.59464907902</v>
       </c>
     </row>
@@ -7271,10 +6136,10 @@
       <c r="AT28" s="2"/>
     </row>
     <row r="29" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="54" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="55" t="s">
@@ -7304,40 +6169,40 @@
       <c r="U29" s="55"/>
       <c r="V29" s="55"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="57" t="s">
+      <c r="X29" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="Y29" s="54" t="s">
+      <c r="Y29" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="Z29" s="54" t="s">
+      <c r="Z29" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="AA29" s="54" t="s">
+      <c r="AA29" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="AB29" s="54" t="s">
+      <c r="AB29" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="AC29" s="54" t="s">
+      <c r="AC29" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AD29" s="54" t="s">
+      <c r="AD29" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AE29" s="54" t="s">
+      <c r="AE29" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AF29" s="54" t="s">
+      <c r="AF29" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="AG29" s="54" t="s">
+      <c r="AG29" s="57" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="55" t="s">
         <v>141</v>
       </c>
@@ -7350,7 +6215,7 @@
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="54" t="s">
+      <c r="I30" s="57" t="s">
         <v>144</v>
       </c>
       <c r="J30" s="55" t="s">
@@ -7365,7 +6230,7 @@
       </c>
       <c r="N30" s="55"/>
       <c r="O30" s="12"/>
-      <c r="P30" s="54" t="s">
+      <c r="P30" s="57" t="s">
         <v>145</v>
       </c>
       <c r="Q30" s="55" t="s">
@@ -7378,23 +6243,23 @@
       <c r="T30" s="55"/>
       <c r="U30" s="55"/>
       <c r="V30" s="55"/>
-      <c r="W30" s="54" t="s">
+      <c r="W30" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="54"/>
-      <c r="AG30" s="54"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="55"/>
       <c r="D31" s="12" t="s">
         <v>147</v>
@@ -7411,7 +6276,7 @@
       <c r="H31" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I31" s="54"/>
+      <c r="I31" s="57"/>
       <c r="J31" s="55"/>
       <c r="K31" s="12" t="s">
         <v>147</v>
@@ -7428,7 +6293,7 @@
       <c r="O31" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="P31" s="54"/>
+      <c r="P31" s="57"/>
       <c r="Q31" s="55"/>
       <c r="R31" s="12" t="s">
         <v>147</v>
@@ -7445,17 +6310,17 @@
       <c r="V31" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="W31" s="54"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="54"/>
-      <c r="AF31" s="54"/>
-      <c r="AG31" s="54"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -12226,28 +11091,28 @@
       <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:33" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="63" t="s">
+      <c r="A70" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="68" t="s">
+      <c r="D70" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="E70" s="69"/>
+      <c r="E70" s="59"/>
       <c r="F70" s="19" t="s">
         <v>165</v>
       </c>
       <c r="G70" s="20"/>
     </row>
     <row r="71" spans="1:33" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="67"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="69"/>
       <c r="D71" s="20" t="s">
         <v>166</v>
       </c>
@@ -12262,7 +11127,7 @@
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" s="58" t="s">
+      <c r="A72" s="60" t="s">
         <v>170</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -12285,8 +11150,8 @@
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="61" t="s">
+      <c r="A73" s="61"/>
+      <c r="B73" s="63" t="s">
         <v>174</v>
       </c>
       <c r="C73" s="28" t="s">
@@ -12306,8 +11171,8 @@
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
-      <c r="B74" s="61"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="63"/>
       <c r="C74" s="28" t="s">
         <v>176</v>
       </c>
@@ -12325,8 +11190,8 @@
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" s="60"/>
-      <c r="B75" s="61"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="32" t="s">
         <v>177</v>
       </c>
@@ -12344,7 +11209,7 @@
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="60" t="s">
         <v>178</v>
       </c>
       <c r="B76" s="22" t="s">
@@ -12367,8 +11232,8 @@
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
-      <c r="B77" s="61" t="s">
+      <c r="A77" s="61"/>
+      <c r="B77" s="63" t="s">
         <v>180</v>
       </c>
       <c r="C77" s="28" t="s">
@@ -12388,8 +11253,8 @@
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="61"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="28" t="s">
         <v>181</v>
       </c>
@@ -12407,8 +11272,8 @@
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A79" s="60"/>
-      <c r="B79" s="61"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="32" t="s">
         <v>177</v>
       </c>
@@ -12426,7 +11291,7 @@
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A80" s="58" t="s">
+      <c r="A80" s="60" t="s">
         <v>182</v>
       </c>
       <c r="B80" s="22" t="s">
@@ -12447,8 +11312,8 @@
       </c>
     </row>
     <row r="81" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
-      <c r="B81" s="62" t="s">
+      <c r="A81" s="61"/>
+      <c r="B81" s="64" t="s">
         <v>184</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -12468,8 +11333,8 @@
       </c>
     </row>
     <row r="82" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
-      <c r="B82" s="62"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="28" t="s">
         <v>181</v>
       </c>
@@ -12487,8 +11352,8 @@
       </c>
     </row>
     <row r="83" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A83" s="60"/>
-      <c r="B83" s="62"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="64"/>
       <c r="C83" s="32" t="s">
         <v>177</v>
       </c>
@@ -12689,10 +11554,10 @@
       <c r="AT92" s="2"/>
     </row>
     <row r="93" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="56" t="s">
+      <c r="A93" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="54" t="s">
         <v>127</v>
       </c>
       <c r="C93" s="55" t="s">
@@ -12722,40 +11587,40 @@
       <c r="U93" s="55"/>
       <c r="V93" s="55"/>
       <c r="W93" s="55"/>
-      <c r="X93" s="57" t="s">
+      <c r="X93" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="Y93" s="54" t="s">
+      <c r="Y93" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="Z93" s="54" t="s">
+      <c r="Z93" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="AA93" s="54" t="s">
+      <c r="AA93" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="AB93" s="54" t="s">
+      <c r="AB93" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="AC93" s="54" t="s">
+      <c r="AC93" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AD93" s="54" t="s">
+      <c r="AD93" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AE93" s="54" t="s">
+      <c r="AE93" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AF93" s="54" t="s">
+      <c r="AF93" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="AG93" s="54" t="s">
+      <c r="AG93" s="57" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
-      <c r="B94" s="56"/>
+      <c r="A94" s="54"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="55" t="s">
         <v>141</v>
       </c>
@@ -12768,7 +11633,7 @@
       </c>
       <c r="G94" s="55"/>
       <c r="H94" s="12"/>
-      <c r="I94" s="54" t="s">
+      <c r="I94" s="57" t="s">
         <v>144</v>
       </c>
       <c r="J94" s="55" t="s">
@@ -12783,7 +11648,7 @@
       </c>
       <c r="N94" s="55"/>
       <c r="O94" s="12"/>
-      <c r="P94" s="54" t="s">
+      <c r="P94" s="57" t="s">
         <v>145</v>
       </c>
       <c r="Q94" s="55" t="s">
@@ -12796,23 +11661,23 @@
       <c r="T94" s="55"/>
       <c r="U94" s="55"/>
       <c r="V94" s="55"/>
-      <c r="W94" s="54" t="s">
+      <c r="W94" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="X94" s="57"/>
-      <c r="Y94" s="54"/>
-      <c r="Z94" s="54"/>
-      <c r="AA94" s="54"/>
-      <c r="AB94" s="54"/>
-      <c r="AC94" s="54"/>
-      <c r="AD94" s="54"/>
-      <c r="AE94" s="54"/>
-      <c r="AF94" s="54"/>
-      <c r="AG94" s="54"/>
+      <c r="X94" s="56"/>
+      <c r="Y94" s="57"/>
+      <c r="Z94" s="57"/>
+      <c r="AA94" s="57"/>
+      <c r="AB94" s="57"/>
+      <c r="AC94" s="57"/>
+      <c r="AD94" s="57"/>
+      <c r="AE94" s="57"/>
+      <c r="AF94" s="57"/>
+      <c r="AG94" s="57"/>
     </row>
     <row r="95" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
-      <c r="B95" s="56"/>
+      <c r="A95" s="54"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="55"/>
       <c r="D95" s="12" t="s">
         <v>147</v>
@@ -12829,7 +11694,7 @@
       <c r="H95" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I95" s="54"/>
+      <c r="I95" s="57"/>
       <c r="J95" s="55"/>
       <c r="K95" s="12" t="s">
         <v>147</v>
@@ -12846,7 +11711,7 @@
       <c r="O95" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="P95" s="54"/>
+      <c r="P95" s="57"/>
       <c r="Q95" s="55"/>
       <c r="R95" s="12" t="s">
         <v>147</v>
@@ -12863,17 +11728,17 @@
       <c r="V95" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="W95" s="54"/>
-      <c r="X95" s="57"/>
-      <c r="Y95" s="54"/>
-      <c r="Z95" s="54"/>
-      <c r="AA95" s="54"/>
-      <c r="AB95" s="54"/>
-      <c r="AC95" s="54"/>
-      <c r="AD95" s="54"/>
-      <c r="AE95" s="54"/>
-      <c r="AF95" s="54"/>
-      <c r="AG95" s="54"/>
+      <c r="W95" s="57"/>
+      <c r="X95" s="56"/>
+      <c r="Y95" s="57"/>
+      <c r="Z95" s="57"/>
+      <c r="AA95" s="57"/>
+      <c r="AB95" s="57"/>
+      <c r="AC95" s="57"/>
+      <c r="AD95" s="57"/>
+      <c r="AE95" s="57"/>
+      <c r="AF95" s="57"/>
+      <c r="AG95" s="57"/>
     </row>
     <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
@@ -17633,10 +16498,10 @@
       </c>
     </row>
     <row r="134" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="56" t="s">
+      <c r="A134" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B134" s="56" t="s">
+      <c r="B134" s="54" t="s">
         <v>127</v>
       </c>
       <c r="C134" s="55" t="s">
@@ -17666,40 +16531,40 @@
       <c r="U134" s="55"/>
       <c r="V134" s="55"/>
       <c r="W134" s="55"/>
-      <c r="X134" s="57" t="s">
+      <c r="X134" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="Y134" s="54" t="s">
+      <c r="Y134" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="Z134" s="54" t="s">
+      <c r="Z134" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="AA134" s="54" t="s">
+      <c r="AA134" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="AB134" s="54" t="s">
+      <c r="AB134" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="AC134" s="54" t="s">
+      <c r="AC134" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AD134" s="54" t="s">
+      <c r="AD134" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AE134" s="54" t="s">
+      <c r="AE134" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AF134" s="54" t="s">
+      <c r="AF134" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="AG134" s="54" t="s">
+      <c r="AG134" s="57" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A135" s="56"/>
-      <c r="B135" s="56"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="54"/>
       <c r="C135" s="55" t="s">
         <v>141</v>
       </c>
@@ -17712,7 +16577,7 @@
       </c>
       <c r="G135" s="55"/>
       <c r="H135" s="12"/>
-      <c r="I135" s="54" t="s">
+      <c r="I135" s="57" t="s">
         <v>144</v>
       </c>
       <c r="J135" s="55" t="s">
@@ -17727,7 +16592,7 @@
       </c>
       <c r="N135" s="55"/>
       <c r="O135" s="12"/>
-      <c r="P135" s="54" t="s">
+      <c r="P135" s="57" t="s">
         <v>145</v>
       </c>
       <c r="Q135" s="55" t="s">
@@ -17740,23 +16605,23 @@
       <c r="T135" s="55"/>
       <c r="U135" s="55"/>
       <c r="V135" s="55"/>
-      <c r="W135" s="54" t="s">
+      <c r="W135" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="X135" s="57"/>
-      <c r="Y135" s="54"/>
-      <c r="Z135" s="54"/>
-      <c r="AA135" s="54"/>
-      <c r="AB135" s="54"/>
-      <c r="AC135" s="54"/>
-      <c r="AD135" s="54"/>
-      <c r="AE135" s="54"/>
-      <c r="AF135" s="54"/>
-      <c r="AG135" s="54"/>
+      <c r="X135" s="56"/>
+      <c r="Y135" s="57"/>
+      <c r="Z135" s="57"/>
+      <c r="AA135" s="57"/>
+      <c r="AB135" s="57"/>
+      <c r="AC135" s="57"/>
+      <c r="AD135" s="57"/>
+      <c r="AE135" s="57"/>
+      <c r="AF135" s="57"/>
+      <c r="AG135" s="57"/>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A136" s="56"/>
-      <c r="B136" s="56"/>
+      <c r="A136" s="54"/>
+      <c r="B136" s="54"/>
       <c r="C136" s="55"/>
       <c r="D136" s="12" t="s">
         <v>147</v>
@@ -17773,7 +16638,7 @@
       <c r="H136" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I136" s="54"/>
+      <c r="I136" s="57"/>
       <c r="J136" s="55"/>
       <c r="K136" s="12" t="s">
         <v>147</v>
@@ -17790,7 +16655,7 @@
       <c r="O136" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="P136" s="54"/>
+      <c r="P136" s="57"/>
       <c r="Q136" s="55"/>
       <c r="R136" s="12" t="s">
         <v>147</v>
@@ -17807,17 +16672,17 @@
       <c r="V136" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="W136" s="54"/>
-      <c r="X136" s="57"/>
-      <c r="Y136" s="54"/>
-      <c r="Z136" s="54"/>
-      <c r="AA136" s="54"/>
-      <c r="AB136" s="54"/>
-      <c r="AC136" s="54"/>
-      <c r="AD136" s="54"/>
-      <c r="AE136" s="54"/>
-      <c r="AF136" s="54"/>
-      <c r="AG136" s="54"/>
+      <c r="W136" s="57"/>
+      <c r="X136" s="56"/>
+      <c r="Y136" s="57"/>
+      <c r="Z136" s="57"/>
+      <c r="AA136" s="57"/>
+      <c r="AB136" s="57"/>
+      <c r="AC136" s="57"/>
+      <c r="AD136" s="57"/>
+      <c r="AE136" s="57"/>
+      <c r="AF136" s="57"/>
+      <c r="AG136" s="57"/>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
@@ -22577,10 +21442,10 @@
       </c>
     </row>
     <row r="175" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="56" t="s">
+      <c r="A175" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B175" s="56" t="s">
+      <c r="B175" s="54" t="s">
         <v>127</v>
       </c>
       <c r="C175" s="55" t="s">
@@ -22610,40 +21475,40 @@
       <c r="U175" s="55"/>
       <c r="V175" s="55"/>
       <c r="W175" s="55"/>
-      <c r="X175" s="57" t="s">
+      <c r="X175" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="Y175" s="54" t="s">
+      <c r="Y175" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="Z175" s="54" t="s">
+      <c r="Z175" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="AA175" s="54" t="s">
+      <c r="AA175" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="AB175" s="54" t="s">
+      <c r="AB175" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="AC175" s="54" t="s">
+      <c r="AC175" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AD175" s="54" t="s">
+      <c r="AD175" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AE175" s="54" t="s">
+      <c r="AE175" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AF175" s="54" t="s">
+      <c r="AF175" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="AG175" s="54" t="s">
+      <c r="AG175" s="57" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="176" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A176" s="56"/>
-      <c r="B176" s="56"/>
+      <c r="A176" s="54"/>
+      <c r="B176" s="54"/>
       <c r="C176" s="55" t="s">
         <v>141</v>
       </c>
@@ -22656,7 +21521,7 @@
       </c>
       <c r="G176" s="55"/>
       <c r="H176" s="12"/>
-      <c r="I176" s="54" t="s">
+      <c r="I176" s="57" t="s">
         <v>144</v>
       </c>
       <c r="J176" s="55" t="s">
@@ -22671,7 +21536,7 @@
       </c>
       <c r="N176" s="55"/>
       <c r="O176" s="12"/>
-      <c r="P176" s="54" t="s">
+      <c r="P176" s="57" t="s">
         <v>145</v>
       </c>
       <c r="Q176" s="55" t="s">
@@ -22684,23 +21549,23 @@
       <c r="T176" s="55"/>
       <c r="U176" s="55"/>
       <c r="V176" s="55"/>
-      <c r="W176" s="54" t="s">
+      <c r="W176" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="X176" s="57"/>
-      <c r="Y176" s="54"/>
-      <c r="Z176" s="54"/>
-      <c r="AA176" s="54"/>
-      <c r="AB176" s="54"/>
-      <c r="AC176" s="54"/>
-      <c r="AD176" s="54"/>
-      <c r="AE176" s="54"/>
-      <c r="AF176" s="54"/>
-      <c r="AG176" s="54"/>
+      <c r="X176" s="56"/>
+      <c r="Y176" s="57"/>
+      <c r="Z176" s="57"/>
+      <c r="AA176" s="57"/>
+      <c r="AB176" s="57"/>
+      <c r="AC176" s="57"/>
+      <c r="AD176" s="57"/>
+      <c r="AE176" s="57"/>
+      <c r="AF176" s="57"/>
+      <c r="AG176" s="57"/>
     </row>
     <row r="177" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A177" s="56"/>
-      <c r="B177" s="56"/>
+      <c r="A177" s="54"/>
+      <c r="B177" s="54"/>
       <c r="C177" s="55"/>
       <c r="D177" s="12" t="s">
         <v>147</v>
@@ -22717,7 +21582,7 @@
       <c r="H177" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I177" s="54"/>
+      <c r="I177" s="57"/>
       <c r="J177" s="55"/>
       <c r="K177" s="12" t="s">
         <v>147</v>
@@ -22734,7 +21599,7 @@
       <c r="O177" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="P177" s="54"/>
+      <c r="P177" s="57"/>
       <c r="Q177" s="55"/>
       <c r="R177" s="12" t="s">
         <v>147</v>
@@ -22751,17 +21616,17 @@
       <c r="V177" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="W177" s="54"/>
-      <c r="X177" s="57"/>
-      <c r="Y177" s="54"/>
-      <c r="Z177" s="54"/>
-      <c r="AA177" s="54"/>
-      <c r="AB177" s="54"/>
-      <c r="AC177" s="54"/>
-      <c r="AD177" s="54"/>
-      <c r="AE177" s="54"/>
-      <c r="AF177" s="54"/>
-      <c r="AG177" s="54"/>
+      <c r="W177" s="57"/>
+      <c r="X177" s="56"/>
+      <c r="Y177" s="57"/>
+      <c r="Z177" s="57"/>
+      <c r="AA177" s="57"/>
+      <c r="AB177" s="57"/>
+      <c r="AC177" s="57"/>
+      <c r="AD177" s="57"/>
+      <c r="AE177" s="57"/>
+      <c r="AF177" s="57"/>
+      <c r="AG177" s="57"/>
     </row>
     <row r="178" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A178" s="13">
@@ -28080,37 +26945,91 @@
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:V30"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AE175:AE177"/>
+    <mergeCell ref="AF175:AF177"/>
+    <mergeCell ref="AG175:AG177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="I176:I177"/>
+    <mergeCell ref="J176:J177"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="Y175:Y177"/>
+    <mergeCell ref="Z175:Z177"/>
+    <mergeCell ref="AA175:AA177"/>
+    <mergeCell ref="AB175:AB177"/>
+    <mergeCell ref="AC175:AC177"/>
+    <mergeCell ref="AD175:AD177"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="C175:I175"/>
+    <mergeCell ref="J175:P175"/>
+    <mergeCell ref="Q175:W175"/>
+    <mergeCell ref="X175:X177"/>
+    <mergeCell ref="P176:P177"/>
+    <mergeCell ref="Q176:Q177"/>
+    <mergeCell ref="R176:V176"/>
+    <mergeCell ref="W176:W177"/>
+    <mergeCell ref="AE134:AE136"/>
+    <mergeCell ref="AF134:AF136"/>
+    <mergeCell ref="AG134:AG136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="Y134:Y136"/>
+    <mergeCell ref="Z134:Z136"/>
+    <mergeCell ref="AA134:AA136"/>
+    <mergeCell ref="AB134:AB136"/>
+    <mergeCell ref="AC134:AC136"/>
+    <mergeCell ref="AD134:AD136"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="J134:P134"/>
+    <mergeCell ref="Q134:W134"/>
+    <mergeCell ref="X134:X136"/>
+    <mergeCell ref="P135:P136"/>
+    <mergeCell ref="Q135:Q136"/>
+    <mergeCell ref="R135:V135"/>
+    <mergeCell ref="W135:W136"/>
+    <mergeCell ref="AG93:AG95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="Q94:Q95"/>
+    <mergeCell ref="AA93:AA95"/>
+    <mergeCell ref="AB93:AB95"/>
+    <mergeCell ref="AC93:AC95"/>
+    <mergeCell ref="AD93:AD95"/>
+    <mergeCell ref="AE93:AE95"/>
+    <mergeCell ref="AF93:AF95"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="J93:P93"/>
+    <mergeCell ref="Q93:W93"/>
+    <mergeCell ref="X93:X95"/>
+    <mergeCell ref="Y93:Y95"/>
+    <mergeCell ref="Z93:Z95"/>
+    <mergeCell ref="R94:V94"/>
+    <mergeCell ref="W94:W95"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="A72:A75"/>
     <mergeCell ref="B73:B75"/>
@@ -28135,91 +27054,37 @@
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="J29:P29"/>
     <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="AG93:AG95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="Q94:Q95"/>
-    <mergeCell ref="AA93:AA95"/>
-    <mergeCell ref="AB93:AB95"/>
-    <mergeCell ref="AC93:AC95"/>
-    <mergeCell ref="AD93:AD95"/>
-    <mergeCell ref="AE93:AE95"/>
-    <mergeCell ref="AF93:AF95"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="J93:P93"/>
-    <mergeCell ref="Q93:W93"/>
-    <mergeCell ref="X93:X95"/>
-    <mergeCell ref="Y93:Y95"/>
-    <mergeCell ref="Z93:Z95"/>
-    <mergeCell ref="R94:V94"/>
-    <mergeCell ref="W94:W95"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="J134:P134"/>
-    <mergeCell ref="Q134:W134"/>
-    <mergeCell ref="X134:X136"/>
-    <mergeCell ref="P135:P136"/>
-    <mergeCell ref="Q135:Q136"/>
-    <mergeCell ref="R135:V135"/>
-    <mergeCell ref="W135:W136"/>
-    <mergeCell ref="AE134:AE136"/>
-    <mergeCell ref="AF134:AF136"/>
-    <mergeCell ref="AG134:AG136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="Y134:Y136"/>
-    <mergeCell ref="Z134:Z136"/>
-    <mergeCell ref="AA134:AA136"/>
-    <mergeCell ref="AB134:AB136"/>
-    <mergeCell ref="AC134:AC136"/>
-    <mergeCell ref="AD134:AD136"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="C175:I175"/>
-    <mergeCell ref="J175:P175"/>
-    <mergeCell ref="Q175:W175"/>
-    <mergeCell ref="X175:X177"/>
-    <mergeCell ref="P176:P177"/>
-    <mergeCell ref="Q176:Q177"/>
-    <mergeCell ref="R176:V176"/>
-    <mergeCell ref="W176:W177"/>
-    <mergeCell ref="AE175:AE177"/>
-    <mergeCell ref="AF175:AF177"/>
-    <mergeCell ref="AG175:AG177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="J176:J177"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="Y175:Y177"/>
-    <mergeCell ref="Z175:Z177"/>
-    <mergeCell ref="AA175:AA177"/>
-    <mergeCell ref="AB175:AB177"/>
-    <mergeCell ref="AC175:AC177"/>
-    <mergeCell ref="AD175:AD177"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:W7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -28232,7 +27097,7 @@
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
